--- a/Racecard_20250205_7.xlsx
+++ b/Racecard_20250205_7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="208">
   <si>
     <t>日期</t>
   </si>
@@ -25,6 +25,18 @@
     <t>場次</t>
   </si>
   <si>
+    <t>泥草</t>
+  </si>
+  <si>
+    <t>賽道</t>
+  </si>
+  <si>
+    <t>班次</t>
+  </si>
+  <si>
+    <t>路程</t>
+  </si>
+  <si>
     <t>馬匹編號</t>
   </si>
   <si>
@@ -103,16 +115,61 @@
     <t>進口類別</t>
   </si>
   <si>
+    <t>上次總場次</t>
+  </si>
+  <si>
     <t>上次名次</t>
   </si>
   <si>
-    <t>上次騎師</t>
-  </si>
-  <si>
-    <t>上次獨贏賠率</t>
+    <t>賽事時間1</t>
+  </si>
+  <si>
+    <t>賽事時間2</t>
+  </si>
+  <si>
+    <t>賽事時間3</t>
+  </si>
+  <si>
+    <t>賽事時間4</t>
+  </si>
+  <si>
+    <t>賽事時間5</t>
+  </si>
+  <si>
+    <t>賽事時間6</t>
+  </si>
+  <si>
+    <t>完成時間</t>
+  </si>
+  <si>
+    <t>第 1 段</t>
+  </si>
+  <si>
+    <t>第 2 段</t>
+  </si>
+  <si>
+    <t>第 3 段</t>
+  </si>
+  <si>
+    <t>第 4 段</t>
+  </si>
+  <si>
+    <t>第 5 段</t>
+  </si>
+  <si>
+    <t>第 6 段</t>
   </si>
   <si>
     <t>HV</t>
+  </si>
+  <si>
+    <t>草地</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "A" 賽道</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 第三班</t>
   </si>
   <si>
     <t>6/4/5/1/1/6</t>
@@ -571,34 +628,40 @@
     <t>PP</t>
   </si>
   <si>
-    <t>田泰安</t>
-  </si>
-  <si>
-    <t>蔡明紹</t>
-  </si>
-  <si>
-    <t>布文</t>
-  </si>
-  <si>
-    <t>希威森</t>
-  </si>
-  <si>
-    <t>潘頓</t>
-  </si>
-  <si>
-    <t>楊明綸</t>
-  </si>
-  <si>
-    <t>霍宏聲</t>
-  </si>
-  <si>
-    <t>班德禮</t>
-  </si>
-  <si>
-    <t>艾兆禮</t>
-  </si>
-  <si>
-    <t>巴度</t>
+    <t>56.43</t>
+  </si>
+  <si>
+    <t>56.76</t>
+  </si>
+  <si>
+    <t>57.11</t>
+  </si>
+  <si>
+    <t>57.28</t>
+  </si>
+  <si>
+    <t>0:56.74</t>
+  </si>
+  <si>
+    <t>0:56.54</t>
+  </si>
+  <si>
+    <t>0:56.83</t>
+  </si>
+  <si>
+    <t>0:57.48</t>
+  </si>
+  <si>
+    <t>0:57.33</t>
+  </si>
+  <si>
+    <t>0:57.28</t>
+  </si>
+  <si>
+    <t>0:57.79</t>
+  </si>
+  <si>
+    <t>0:57.83</t>
   </si>
 </sst>
 </file>
@@ -960,13 +1023,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AV13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,1064 +1126,1364 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:48">
       <c r="A2" s="2">
         <v>45693</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2">
         <v>135</v>
       </c>
-      <c r="I2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2">
+      <c r="M2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2">
+      <c r="P2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R2">
         <v>77</v>
       </c>
-      <c r="O2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2">
+      <c r="S2" t="s">
+        <v>110</v>
+      </c>
+      <c r="T2">
         <v>1193</v>
       </c>
-      <c r="Q2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R2" t="s">
-        <v>104</v>
-      </c>
-      <c r="S2">
+      <c r="U2" t="s">
+        <v>112</v>
+      </c>
+      <c r="V2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W2">
         <v>5</v>
       </c>
-      <c r="U2" t="s">
-        <v>113</v>
-      </c>
-      <c r="V2" t="s">
-        <v>114</v>
-      </c>
-      <c r="W2" t="s">
-        <v>92</v>
-      </c>
-      <c r="X2" t="s">
-        <v>125</v>
-      </c>
       <c r="Y2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AA2" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="AB2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="AC2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD2">
+        <v>150</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH2">
+        <v>2024350</v>
+      </c>
+      <c r="AI2">
         <v>6</v>
       </c>
-      <c r="AE2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF2">
-        <v>11</v>
+      <c r="AJ2">
+        <v>12.45</v>
+      </c>
+      <c r="AK2">
+        <v>33.08</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ2">
+        <v>12.89</v>
+      </c>
+      <c r="AR2">
+        <v>21.07</v>
+      </c>
+      <c r="AS2">
+        <v>22.78</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:48">
       <c r="A3" s="2">
         <v>45693</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3">
         <v>134</v>
       </c>
-      <c r="I3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3">
+      <c r="M3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3">
         <v>6</v>
       </c>
-      <c r="L3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N3">
+      <c r="P3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3">
         <v>76</v>
       </c>
-      <c r="O3" t="s">
-        <v>92</v>
-      </c>
-      <c r="P3">
+      <c r="S3" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3">
         <v>1083</v>
       </c>
-      <c r="Q3" t="s">
-        <v>95</v>
-      </c>
-      <c r="R3" t="s">
-        <v>105</v>
-      </c>
-      <c r="S3">
+      <c r="U3" t="s">
+        <v>114</v>
+      </c>
+      <c r="V3" t="s">
+        <v>124</v>
+      </c>
+      <c r="W3">
         <v>5</v>
-      </c>
-      <c r="U3" t="s">
-        <v>113</v>
-      </c>
-      <c r="V3" t="s">
-        <v>115</v>
-      </c>
-      <c r="W3" t="s">
-        <v>92</v>
-      </c>
-      <c r="X3" t="s">
-        <v>125</v>
       </c>
       <c r="Y3" t="s">
         <v>132</v>
       </c>
       <c r="Z3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AA3" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="AB3" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="AC3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD3">
+        <v>151</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH3">
+        <v>2024350</v>
+      </c>
+      <c r="AI3">
         <v>3</v>
       </c>
-      <c r="AE3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF3">
-        <v>8.6</v>
+      <c r="AJ3">
+        <v>12.45</v>
+      </c>
+      <c r="AK3">
+        <v>33.08</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ3">
+        <v>12.45</v>
+      </c>
+      <c r="AR3">
+        <v>20.63</v>
+      </c>
+      <c r="AS3">
+        <v>23.46</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:48">
       <c r="A4" s="2">
         <v>45693</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4">
         <v>133</v>
       </c>
-      <c r="I4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4">
+      <c r="M4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4">
         <v>8</v>
       </c>
-      <c r="L4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N4">
+      <c r="P4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4">
         <v>75</v>
       </c>
-      <c r="O4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P4">
+      <c r="S4" t="s">
+        <v>112</v>
+      </c>
+      <c r="T4">
         <v>1032</v>
       </c>
-      <c r="Q4" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" t="s">
-        <v>106</v>
-      </c>
-      <c r="S4">
+      <c r="U4" t="s">
+        <v>115</v>
+      </c>
+      <c r="V4" t="s">
+        <v>125</v>
+      </c>
+      <c r="W4">
         <v>4</v>
       </c>
-      <c r="U4" t="s">
-        <v>113</v>
-      </c>
-      <c r="V4" t="s">
-        <v>116</v>
-      </c>
-      <c r="W4" t="s">
-        <v>92</v>
-      </c>
-      <c r="X4" t="s">
-        <v>126</v>
-      </c>
       <c r="Y4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AA4" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="AB4" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="AC4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD4">
-        <v>4</v>
+        <v>152</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>160</v>
       </c>
       <c r="AE4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF4">
-        <v>3.3</v>
+        <v>172</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH4">
+        <v>2024219</v>
+      </c>
+      <c r="AI4">
+        <v>2</v>
+      </c>
+      <c r="AJ4">
+        <v>12.38</v>
+      </c>
+      <c r="AK4">
+        <v>33.32</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AQ4">
+        <v>12.7</v>
+      </c>
+      <c r="AR4">
+        <v>21.22</v>
+      </c>
+      <c r="AS4">
+        <v>22.91</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:48">
       <c r="A5" s="2">
         <v>45693</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5">
         <v>132</v>
       </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5">
+      <c r="M5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5">
         <v>7</v>
       </c>
-      <c r="L5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N5">
+      <c r="P5" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5">
         <v>74</v>
       </c>
-      <c r="O5" t="s">
-        <v>93</v>
-      </c>
-      <c r="P5">
+      <c r="S5" t="s">
+        <v>112</v>
+      </c>
+      <c r="T5">
         <v>1131</v>
       </c>
-      <c r="Q5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R5" t="s">
-        <v>107</v>
-      </c>
-      <c r="S5">
+      <c r="U5" t="s">
+        <v>116</v>
+      </c>
+      <c r="V5" t="s">
+        <v>126</v>
+      </c>
+      <c r="W5">
         <v>5</v>
       </c>
-      <c r="U5" t="s">
-        <v>113</v>
-      </c>
-      <c r="V5" t="s">
-        <v>117</v>
-      </c>
-      <c r="W5" t="s">
-        <v>92</v>
-      </c>
-      <c r="X5" t="s">
-        <v>127</v>
-      </c>
       <c r="Y5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Z5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AA5" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="AB5" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="AC5" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD5">
-        <v>2</v>
+        <v>153</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>161</v>
       </c>
       <c r="AE5" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF5">
-        <v>8.699999999999999</v>
+        <v>173</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH5">
+        <v>2024219</v>
+      </c>
+      <c r="AI5">
+        <v>6</v>
+      </c>
+      <c r="AJ5">
+        <v>12.38</v>
+      </c>
+      <c r="AK5">
+        <v>33.32</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ5">
+        <v>12.82</v>
+      </c>
+      <c r="AR5">
+        <v>21.58</v>
+      </c>
+      <c r="AS5">
+        <v>23.08</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:48">
       <c r="A6" s="2">
         <v>45693</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6">
         <v>122</v>
       </c>
-      <c r="I6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6">
+      <c r="M6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6">
         <v>11</v>
       </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="N6">
+      <c r="P6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R6">
         <v>64</v>
       </c>
-      <c r="O6" t="s">
-        <v>93</v>
-      </c>
-      <c r="P6">
+      <c r="S6" t="s">
+        <v>112</v>
+      </c>
+      <c r="T6">
         <v>1148</v>
       </c>
-      <c r="Q6" t="s">
-        <v>98</v>
-      </c>
-      <c r="R6" t="s">
-        <v>108</v>
-      </c>
-      <c r="S6">
+      <c r="U6" t="s">
+        <v>117</v>
+      </c>
+      <c r="V6" t="s">
+        <v>127</v>
+      </c>
+      <c r="W6">
         <v>4</v>
       </c>
-      <c r="U6" t="s">
-        <v>113</v>
-      </c>
-      <c r="V6" t="s">
-        <v>118</v>
-      </c>
-      <c r="W6" t="s">
-        <v>92</v>
-      </c>
-      <c r="X6" t="s">
-        <v>128</v>
-      </c>
       <c r="Y6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AA6" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="AB6" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="AC6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD6">
-        <v>6</v>
+        <v>152</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>162</v>
       </c>
       <c r="AE6" t="s">
-        <v>180</v>
-      </c>
-      <c r="AF6">
-        <v>11</v>
+        <v>174</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:48">
       <c r="A7" s="2">
         <v>45693</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7">
         <v>122</v>
       </c>
-      <c r="I7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7">
+      <c r="M7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7">
         <v>12</v>
       </c>
-      <c r="L7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7">
+      <c r="P7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7">
         <v>64</v>
       </c>
-      <c r="O7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7">
+      <c r="S7" t="s">
+        <v>112</v>
+      </c>
+      <c r="T7">
         <v>1081</v>
       </c>
-      <c r="Q7" t="s">
-        <v>99</v>
-      </c>
-      <c r="R7" t="s">
-        <v>109</v>
-      </c>
-      <c r="S7">
+      <c r="U7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V7" t="s">
+        <v>128</v>
+      </c>
+      <c r="W7">
         <v>6</v>
       </c>
-      <c r="U7" t="s">
-        <v>113</v>
-      </c>
-      <c r="V7" t="s">
-        <v>119</v>
-      </c>
-      <c r="W7" t="s">
-        <v>92</v>
-      </c>
-      <c r="X7" t="s">
-        <v>129</v>
-      </c>
       <c r="Y7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AA7" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="AB7" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="AC7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD7">
-        <v>2</v>
+        <v>150</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>163</v>
       </c>
       <c r="AE7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF7">
-        <v>4.7</v>
+        <v>175</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH7">
+        <v>2024256</v>
+      </c>
+      <c r="AI7">
+        <v>3</v>
+      </c>
+      <c r="AJ7">
+        <v>12.49</v>
+      </c>
+      <c r="AK7">
+        <v>33.3</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ7">
+        <v>13.37</v>
+      </c>
+      <c r="AR7">
+        <v>21.09</v>
+      </c>
+      <c r="AS7">
+        <v>22.87</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:48">
       <c r="A8" s="2">
         <v>45693</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>7</v>
+      <c r="D8" t="s">
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" t="s">
-        <v>63</v>
+      <c r="G8">
+        <v>1000</v>
       </c>
       <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8">
         <v>122</v>
       </c>
-      <c r="I8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8">
+      <c r="M8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8">
         <v>3</v>
       </c>
-      <c r="L8" t="s">
-        <v>87</v>
-      </c>
-      <c r="N8">
+      <c r="P8" t="s">
+        <v>106</v>
+      </c>
+      <c r="R8">
         <v>64</v>
       </c>
-      <c r="O8" t="s">
-        <v>94</v>
-      </c>
-      <c r="P8">
+      <c r="S8" t="s">
+        <v>113</v>
+      </c>
+      <c r="T8">
         <v>1125</v>
       </c>
-      <c r="Q8" t="s">
-        <v>93</v>
-      </c>
-      <c r="S8">
+      <c r="U8" t="s">
+        <v>112</v>
+      </c>
+      <c r="W8">
         <v>4</v>
       </c>
-      <c r="U8" t="s">
-        <v>113</v>
-      </c>
-      <c r="V8" t="s">
-        <v>93</v>
-      </c>
-      <c r="W8" t="s">
-        <v>124</v>
-      </c>
-      <c r="X8" t="s">
-        <v>126</v>
+      <c r="Y8" t="s">
+        <v>132</v>
       </c>
       <c r="Z8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB8" t="s">
         <v>145</v>
       </c>
-      <c r="AA8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE8" t="s">
         <v>176</v>
       </c>
-      <c r="AD8">
-        <v>12</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF8">
-        <v>85</v>
+      <c r="AF8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:48">
       <c r="A9" s="2">
         <v>45693</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9">
         <v>120</v>
       </c>
-      <c r="I9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9">
+      <c r="M9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9">
         <v>5</v>
       </c>
-      <c r="L9" t="s">
-        <v>88</v>
-      </c>
-      <c r="N9">
+      <c r="P9" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9">
         <v>62</v>
       </c>
-      <c r="O9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P9">
+      <c r="S9" t="s">
+        <v>110</v>
+      </c>
+      <c r="T9">
         <v>1174</v>
       </c>
-      <c r="Q9" t="s">
-        <v>100</v>
-      </c>
-      <c r="R9" t="s">
-        <v>104</v>
-      </c>
-      <c r="S9">
+      <c r="U9" t="s">
+        <v>119</v>
+      </c>
+      <c r="V9" t="s">
+        <v>123</v>
+      </c>
+      <c r="W9">
         <v>7</v>
       </c>
-      <c r="U9" t="s">
-        <v>113</v>
-      </c>
-      <c r="V9" t="s">
-        <v>120</v>
-      </c>
-      <c r="W9" t="s">
-        <v>92</v>
-      </c>
-      <c r="X9" t="s">
-        <v>126</v>
-      </c>
       <c r="Y9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Z9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AA9" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="AB9" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="AC9" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD9">
-        <v>11</v>
+        <v>154</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>165</v>
       </c>
       <c r="AE9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF9">
-        <v>103</v>
+        <v>177</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH9">
+        <v>2024234</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>12.57</v>
+      </c>
+      <c r="AK9">
+        <v>33.8</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ9">
+        <v>12.89</v>
+      </c>
+      <c r="AR9">
+        <v>21.55</v>
+      </c>
+      <c r="AS9">
+        <v>22.84</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:48">
       <c r="A10" s="2">
         <v>45693</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+      <c r="H10">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10">
         <v>119</v>
       </c>
-      <c r="I10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10">
+      <c r="M10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10">
         <v>1</v>
       </c>
-      <c r="L10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N10">
+      <c r="P10" t="s">
+        <v>106</v>
+      </c>
+      <c r="R10">
         <v>61</v>
       </c>
-      <c r="O10" t="s">
-        <v>94</v>
-      </c>
-      <c r="P10">
+      <c r="S10" t="s">
+        <v>113</v>
+      </c>
+      <c r="T10">
         <v>1277</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>94</v>
-      </c>
-      <c r="R10" t="s">
-        <v>110</v>
-      </c>
-      <c r="S10">
-        <v>6</v>
       </c>
       <c r="U10" t="s">
         <v>113</v>
       </c>
       <c r="V10" t="s">
-        <v>121</v>
-      </c>
-      <c r="W10" t="s">
-        <v>92</v>
-      </c>
-      <c r="X10" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="W10">
+        <v>6</v>
       </c>
       <c r="Y10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Z10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AA10" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="AB10" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="AC10" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD10">
-        <v>12</v>
+        <v>155</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>166</v>
       </c>
       <c r="AE10" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF10">
-        <v>15</v>
+        <v>178</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH10">
+        <v>2024219</v>
+      </c>
+      <c r="AI10">
+        <v>9</v>
+      </c>
+      <c r="AJ10">
+        <v>12.38</v>
+      </c>
+      <c r="AK10">
+        <v>33.32</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ10">
+        <v>12.46</v>
+      </c>
+      <c r="AR10">
+        <v>21.18</v>
+      </c>
+      <c r="AS10">
+        <v>24.15</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:48">
       <c r="A11" s="2">
         <v>45693</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11">
         <v>119</v>
       </c>
-      <c r="I11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11">
+      <c r="M11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11">
         <v>4</v>
       </c>
-      <c r="L11" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11">
+      <c r="P11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R11">
         <v>61</v>
       </c>
-      <c r="O11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P11">
+      <c r="S11" t="s">
+        <v>110</v>
+      </c>
+      <c r="T11">
         <v>1144</v>
       </c>
-      <c r="Q11" t="s">
-        <v>101</v>
-      </c>
-      <c r="R11" t="s">
-        <v>111</v>
-      </c>
-      <c r="S11">
+      <c r="U11" t="s">
+        <v>120</v>
+      </c>
+      <c r="V11" t="s">
+        <v>130</v>
+      </c>
+      <c r="W11">
         <v>6</v>
       </c>
-      <c r="U11" t="s">
-        <v>113</v>
-      </c>
-      <c r="V11" t="s">
-        <v>122</v>
-      </c>
-      <c r="W11" t="s">
-        <v>124</v>
-      </c>
-      <c r="X11" t="s">
-        <v>130</v>
-      </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AA11" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="AB11" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="AC11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD11">
-        <v>4</v>
+        <v>150</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>167</v>
       </c>
       <c r="AE11" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF11">
-        <v>8.1</v>
+        <v>179</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:48">
       <c r="A12" s="2">
         <v>45693</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12">
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12">
         <v>119</v>
       </c>
-      <c r="I12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12">
+      <c r="M12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12">
         <v>10</v>
       </c>
-      <c r="L12" t="s">
-        <v>89</v>
-      </c>
-      <c r="N12">
+      <c r="P12" t="s">
+        <v>108</v>
+      </c>
+      <c r="R12">
         <v>61</v>
       </c>
-      <c r="O12" t="s">
-        <v>91</v>
-      </c>
-      <c r="P12">
+      <c r="S12" t="s">
+        <v>110</v>
+      </c>
+      <c r="T12">
         <v>1076</v>
       </c>
-      <c r="Q12" t="s">
-        <v>102</v>
-      </c>
-      <c r="R12" t="s">
-        <v>112</v>
-      </c>
-      <c r="S12">
+      <c r="U12" t="s">
+        <v>121</v>
+      </c>
+      <c r="V12" t="s">
+        <v>131</v>
+      </c>
+      <c r="W12">
         <v>4</v>
       </c>
-      <c r="U12" t="s">
-        <v>113</v>
-      </c>
-      <c r="V12" t="s">
-        <v>123</v>
-      </c>
-      <c r="W12" t="s">
-        <v>92</v>
-      </c>
-      <c r="X12" t="s">
-        <v>130</v>
-      </c>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Z12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB12" t="s">
         <v>149</v>
       </c>
-      <c r="AA12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>173</v>
-      </c>
       <c r="AC12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD12">
-        <v>12</v>
+        <v>156</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>168</v>
       </c>
       <c r="AE12" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF12">
-        <v>9.800000000000001</v>
+        <v>180</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH12">
+        <v>2024234</v>
+      </c>
+      <c r="AI12">
+        <v>9</v>
+      </c>
+      <c r="AJ12">
+        <v>12.57</v>
+      </c>
+      <c r="AK12">
+        <v>33.8</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ12">
+        <v>13.17</v>
+      </c>
+      <c r="AR12">
+        <v>21.51</v>
+      </c>
+      <c r="AS12">
+        <v>23.15</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:48">
       <c r="A13" s="2">
         <v>45693</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13">
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13">
         <v>118</v>
       </c>
-      <c r="I13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13">
+      <c r="M13" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13">
         <v>9</v>
       </c>
-      <c r="L13" t="s">
-        <v>90</v>
-      </c>
-      <c r="N13">
+      <c r="P13" t="s">
+        <v>109</v>
+      </c>
+      <c r="R13">
         <v>60</v>
       </c>
-      <c r="O13" t="s">
-        <v>94</v>
-      </c>
-      <c r="P13">
+      <c r="S13" t="s">
+        <v>113</v>
+      </c>
+      <c r="T13">
         <v>1145</v>
       </c>
-      <c r="Q13" t="s">
-        <v>103</v>
-      </c>
-      <c r="S13">
+      <c r="U13" t="s">
+        <v>122</v>
+      </c>
+      <c r="W13">
         <v>3</v>
       </c>
-      <c r="U13" t="s">
-        <v>113</v>
-      </c>
-      <c r="V13" t="s">
-        <v>93</v>
-      </c>
-      <c r="W13" t="s">
-        <v>92</v>
-      </c>
-      <c r="X13" t="s">
-        <v>130</v>
-      </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="Z13" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="AA13" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="AB13" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="AC13" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD13">
-        <v>9</v>
+        <v>157</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>169</v>
       </c>
       <c r="AE13" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF13">
-        <v>117</v>
+        <v>181</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/Racecard_20250205_7.xlsx
+++ b/Racecard_20250205_7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="223">
   <si>
     <t>日期</t>
   </si>
@@ -121,6 +121,18 @@
     <t>上次名次</t>
   </si>
   <si>
+    <t>上次負磅</t>
+  </si>
+  <si>
+    <t>負磅 +/-</t>
+  </si>
+  <si>
+    <t>上次檔位</t>
+  </si>
+  <si>
+    <t>檔位 +/-</t>
+  </si>
+  <si>
     <t>賽事時間1</t>
   </si>
   <si>
@@ -158,6 +170,18 @@
   </si>
   <si>
     <t>第 6 段</t>
+  </si>
+  <si>
+    <t>最後 800</t>
+  </si>
+  <si>
+    <t>調整基數</t>
+  </si>
+  <si>
+    <t>調整後最後 800</t>
+  </si>
+  <si>
+    <t>調整後完成時間</t>
   </si>
   <si>
     <t>HV</t>
@@ -662,6 +686,27 @@
   </si>
   <si>
     <t>0:57.83</t>
+  </si>
+  <si>
+    <t>0:56.95</t>
+  </si>
+  <si>
+    <t>0:56.87</t>
+  </si>
+  <si>
+    <t>0:56.88</t>
+  </si>
+  <si>
+    <t>0:57.54</t>
+  </si>
+  <si>
+    <t>0:57.44</t>
+  </si>
+  <si>
+    <t>0:57.01</t>
+  </si>
+  <si>
+    <t>0:57.58</t>
   </si>
 </sst>
 </file>
@@ -1023,13 +1068,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV13"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:56">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,25 +1219,49 @@
       <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:56">
       <c r="A2" s="2">
         <v>45693</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G2">
         <v>1000</v>
@@ -1201,70 +1270,70 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="L2">
         <v>135</v>
       </c>
       <c r="M2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="O2">
         <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="R2">
         <v>77</v>
       </c>
       <c r="S2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="T2">
         <v>1193</v>
       </c>
       <c r="U2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="V2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="W2">
         <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Z2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="AA2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AB2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AC2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AD2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AE2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AF2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="AG2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AH2">
         <v>2024350</v>
@@ -1273,45 +1342,69 @@
         <v>6</v>
       </c>
       <c r="AJ2">
+        <v>117</v>
+      </c>
+      <c r="AK2">
+        <v>18</v>
+      </c>
+      <c r="AL2">
+        <v>6</v>
+      </c>
+      <c r="AM2">
+        <v>-4</v>
+      </c>
+      <c r="AN2">
         <v>12.45</v>
       </c>
-      <c r="AK2">
+      <c r="AO2">
         <v>33.08</v>
       </c>
-      <c r="AL2" t="s">
-        <v>196</v>
-      </c>
       <c r="AP2" t="s">
-        <v>200</v>
-      </c>
-      <c r="AQ2">
+        <v>204</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AU2">
         <v>12.89</v>
       </c>
-      <c r="AR2">
+      <c r="AV2">
         <v>21.07</v>
       </c>
-      <c r="AS2">
+      <c r="AW2">
         <v>22.78</v>
       </c>
+      <c r="BA2">
+        <v>43.85</v>
+      </c>
+      <c r="BB2">
+        <v>0.214</v>
+      </c>
+      <c r="BC2">
+        <v>44.064</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:56">
       <c r="A3" s="2">
         <v>45693</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G3">
         <v>1000</v>
@@ -1320,70 +1413,70 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L3">
         <v>134</v>
       </c>
       <c r="M3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="O3">
         <v>6</v>
       </c>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="R3">
         <v>76</v>
       </c>
       <c r="S3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="T3">
         <v>1083</v>
       </c>
       <c r="U3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="V3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="W3">
         <v>5</v>
       </c>
       <c r="Y3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Z3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="AA3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AB3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AC3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AD3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AE3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AF3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="AG3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AH3">
         <v>2024350</v>
@@ -1392,45 +1485,69 @@
         <v>3</v>
       </c>
       <c r="AJ3">
+        <v>115</v>
+      </c>
+      <c r="AK3">
+        <v>19</v>
+      </c>
+      <c r="AL3">
+        <v>3</v>
+      </c>
+      <c r="AM3">
+        <v>3</v>
+      </c>
+      <c r="AN3">
         <v>12.45</v>
       </c>
-      <c r="AK3">
+      <c r="AO3">
         <v>33.08</v>
       </c>
-      <c r="AL3" t="s">
-        <v>196</v>
-      </c>
       <c r="AP3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AQ3">
+        <v>204</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AU3">
         <v>12.45</v>
       </c>
-      <c r="AR3">
+      <c r="AV3">
         <v>20.63</v>
       </c>
-      <c r="AS3">
+      <c r="AW3">
         <v>23.46</v>
       </c>
+      <c r="BA3">
+        <v>44.09</v>
+      </c>
+      <c r="BB3">
+        <v>0.327</v>
+      </c>
+      <c r="BC3">
+        <v>44.417</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>217</v>
+      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:56">
       <c r="A4" s="2">
         <v>45693</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>1000</v>
@@ -1439,70 +1556,70 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L4">
         <v>133</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="O4">
         <v>8</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="R4">
         <v>75</v>
       </c>
       <c r="S4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="T4">
         <v>1032</v>
       </c>
       <c r="U4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="V4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="W4">
         <v>4</v>
       </c>
       <c r="Y4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Z4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="AA4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AB4" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AC4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="AD4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="AE4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AF4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AG4" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AH4">
         <v>2024219</v>
@@ -1511,45 +1628,69 @@
         <v>2</v>
       </c>
       <c r="AJ4">
+        <v>126</v>
+      </c>
+      <c r="AK4">
+        <v>7</v>
+      </c>
+      <c r="AL4">
+        <v>12</v>
+      </c>
+      <c r="AM4">
+        <v>-4</v>
+      </c>
+      <c r="AN4">
         <v>12.38</v>
       </c>
-      <c r="AK4">
+      <c r="AO4">
         <v>33.32</v>
       </c>
-      <c r="AL4" t="s">
-        <v>197</v>
-      </c>
       <c r="AP4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AQ4">
+        <v>205</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU4">
         <v>12.7</v>
       </c>
-      <c r="AR4">
+      <c r="AV4">
         <v>21.22</v>
       </c>
-      <c r="AS4">
+      <c r="AW4">
         <v>22.91</v>
       </c>
+      <c r="BA4">
+        <v>44.13</v>
+      </c>
+      <c r="BB4">
+        <v>0.04899999999999999</v>
+      </c>
+      <c r="BC4">
+        <v>44.179</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:56">
       <c r="A5" s="2">
         <v>45693</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>1000</v>
@@ -1558,70 +1699,70 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L5">
         <v>132</v>
       </c>
       <c r="M5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O5">
         <v>7</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="R5">
         <v>74</v>
       </c>
       <c r="S5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="T5">
         <v>1131</v>
       </c>
       <c r="U5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="V5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="W5">
         <v>5</v>
       </c>
       <c r="Y5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Z5" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="AA5" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AB5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AC5" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AD5" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="AE5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AF5" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="AG5" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AH5">
         <v>2024219</v>
@@ -1630,45 +1771,69 @@
         <v>6</v>
       </c>
       <c r="AJ5">
+        <v>133</v>
+      </c>
+      <c r="AK5">
+        <v>-1</v>
+      </c>
+      <c r="AL5">
+        <v>2</v>
+      </c>
+      <c r="AM5">
+        <v>5</v>
+      </c>
+      <c r="AN5">
         <v>12.38</v>
       </c>
-      <c r="AK5">
+      <c r="AO5">
         <v>33.32</v>
       </c>
-      <c r="AL5" t="s">
-        <v>197</v>
-      </c>
       <c r="AP5" t="s">
-        <v>203</v>
-      </c>
-      <c r="AQ5">
+        <v>205</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU5">
         <v>12.82</v>
       </c>
-      <c r="AR5">
+      <c r="AV5">
         <v>21.58</v>
       </c>
-      <c r="AS5">
+      <c r="AW5">
         <v>23.08</v>
       </c>
+      <c r="BA5">
+        <v>44.66</v>
+      </c>
+      <c r="BB5">
+        <v>0.05500000000000001</v>
+      </c>
+      <c r="BC5">
+        <v>44.715</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>219</v>
+      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:56">
       <c r="A6" s="2">
         <v>45693</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G6">
         <v>1000</v>
@@ -1677,90 +1842,90 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L6">
         <v>122</v>
       </c>
       <c r="M6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O6">
         <v>11</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="R6">
         <v>64</v>
       </c>
       <c r="S6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="T6">
         <v>1148</v>
       </c>
       <c r="U6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="V6" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
       <c r="Y6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Z6" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="AA6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AB6" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AC6" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="AD6" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AE6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AF6" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="AG6" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:56">
       <c r="A7" s="2">
         <v>45693</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G7">
         <v>1000</v>
@@ -1769,70 +1934,70 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L7">
         <v>122</v>
       </c>
       <c r="M7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="O7">
         <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="R7">
         <v>64</v>
       </c>
       <c r="S7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="T7">
         <v>1081</v>
       </c>
       <c r="U7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="V7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="W7">
         <v>6</v>
       </c>
       <c r="Y7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Z7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="AA7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AB7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AC7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AD7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AE7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AF7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AG7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AH7">
         <v>2024256</v>
@@ -1841,45 +2006,69 @@
         <v>3</v>
       </c>
       <c r="AJ7">
+        <v>124</v>
+      </c>
+      <c r="AK7">
+        <v>-2</v>
+      </c>
+      <c r="AL7">
+        <v>2</v>
+      </c>
+      <c r="AM7">
+        <v>10</v>
+      </c>
+      <c r="AN7">
         <v>12.49</v>
       </c>
-      <c r="AK7">
+      <c r="AO7">
         <v>33.3</v>
       </c>
-      <c r="AL7" t="s">
-        <v>198</v>
-      </c>
       <c r="AP7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AQ7">
+        <v>206</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU7">
         <v>13.37</v>
       </c>
-      <c r="AR7">
+      <c r="AV7">
         <v>21.09</v>
       </c>
-      <c r="AS7">
+      <c r="AW7">
         <v>22.87</v>
       </c>
+      <c r="BA7">
+        <v>43.96</v>
+      </c>
+      <c r="BB7">
+        <v>0.11</v>
+      </c>
+      <c r="BC7">
+        <v>44.07</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>220</v>
+      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:56">
       <c r="A8" s="2">
         <v>45693</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G8">
         <v>1000</v>
@@ -1888,84 +2077,84 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="L8">
         <v>122</v>
       </c>
       <c r="M8" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="O8">
         <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="R8">
         <v>64</v>
       </c>
       <c r="S8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="T8">
         <v>1125</v>
       </c>
       <c r="U8" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="W8">
         <v>4</v>
       </c>
       <c r="Y8" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Z8" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AA8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="AB8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AD8" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="AE8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AF8" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AG8" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:56">
       <c r="A9" s="2">
         <v>45693</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G9">
         <v>1000</v>
@@ -1974,70 +2163,70 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="L9">
         <v>120</v>
       </c>
       <c r="M9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="O9">
         <v>5</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="R9">
         <v>62</v>
       </c>
       <c r="S9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="T9">
         <v>1174</v>
       </c>
       <c r="U9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="V9" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="W9">
         <v>7</v>
       </c>
       <c r="Y9" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Z9" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="AA9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AB9" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AC9" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="AD9" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AE9" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="AF9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AG9" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AH9">
         <v>2024234</v>
@@ -2046,45 +2235,69 @@
         <v>1</v>
       </c>
       <c r="AJ9">
+        <v>135</v>
+      </c>
+      <c r="AK9">
+        <v>-15</v>
+      </c>
+      <c r="AL9">
+        <v>8</v>
+      </c>
+      <c r="AM9">
+        <v>-3</v>
+      </c>
+      <c r="AN9">
         <v>12.57</v>
       </c>
-      <c r="AK9">
+      <c r="AO9">
         <v>33.8</v>
       </c>
-      <c r="AL9" t="s">
-        <v>199</v>
-      </c>
       <c r="AP9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ9">
+        <v>207</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU9">
         <v>12.89</v>
       </c>
-      <c r="AR9">
+      <c r="AV9">
         <v>21.55</v>
       </c>
-      <c r="AS9">
+      <c r="AW9">
         <v>22.84</v>
       </c>
+      <c r="BA9">
+        <v>44.39</v>
+      </c>
+      <c r="BB9">
+        <v>-0.267</v>
+      </c>
+      <c r="BC9">
+        <v>44.123</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>221</v>
+      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:56">
       <c r="A10" s="2">
         <v>45693</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G10">
         <v>1000</v>
@@ -2093,70 +2306,70 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="L10">
         <v>119</v>
       </c>
       <c r="M10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="R10">
         <v>61</v>
       </c>
       <c r="S10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="T10">
         <v>1277</v>
       </c>
       <c r="U10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="V10" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="W10">
         <v>6</v>
       </c>
       <c r="Y10" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Z10" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="AA10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AB10" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AC10" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="AD10" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="AE10" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AF10" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AG10" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AH10">
         <v>2024219</v>
@@ -2165,45 +2378,69 @@
         <v>9</v>
       </c>
       <c r="AJ10">
+        <v>119</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
         <v>12.38</v>
       </c>
-      <c r="AK10">
+      <c r="AO10">
         <v>33.32</v>
       </c>
-      <c r="AL10" t="s">
-        <v>197</v>
-      </c>
       <c r="AP10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AQ10">
+        <v>205</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>214</v>
+      </c>
+      <c r="AU10">
         <v>12.46</v>
       </c>
-      <c r="AR10">
+      <c r="AV10">
         <v>21.18</v>
       </c>
-      <c r="AS10">
+      <c r="AW10">
         <v>24.15</v>
       </c>
+      <c r="BA10">
+        <v>45.33</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>45.33</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:56">
       <c r="A11" s="2">
         <v>45693</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>1000</v>
@@ -2212,90 +2449,90 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="L11">
         <v>119</v>
       </c>
       <c r="M11" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O11">
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="R11">
         <v>61</v>
       </c>
       <c r="S11" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="T11">
         <v>1144</v>
       </c>
       <c r="U11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="V11" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="W11">
         <v>6</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Z11" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="AA11" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="AB11" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AC11" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AD11" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AE11" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AF11" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="AG11" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:56">
       <c r="A12" s="2">
         <v>45693</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G12">
         <v>1000</v>
@@ -2304,70 +2541,70 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L12">
         <v>119</v>
       </c>
       <c r="M12" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O12">
         <v>10</v>
       </c>
       <c r="P12" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="R12">
         <v>61</v>
       </c>
       <c r="S12" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="T12">
         <v>1076</v>
       </c>
       <c r="U12" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="V12" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="W12">
         <v>4</v>
       </c>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Z12" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AA12" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AB12" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AC12" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AD12" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AE12" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AF12" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="AG12" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AH12">
         <v>2024234</v>
@@ -2376,45 +2613,69 @@
         <v>9</v>
       </c>
       <c r="AJ12">
+        <v>134</v>
+      </c>
+      <c r="AK12">
+        <v>-15</v>
+      </c>
+      <c r="AL12">
+        <v>12</v>
+      </c>
+      <c r="AM12">
+        <v>-2</v>
+      </c>
+      <c r="AN12">
         <v>12.57</v>
       </c>
-      <c r="AK12">
+      <c r="AO12">
         <v>33.8</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>199</v>
       </c>
       <c r="AP12" t="s">
         <v>207</v>
       </c>
-      <c r="AQ12">
+      <c r="AT12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU12">
         <v>13.17</v>
       </c>
-      <c r="AR12">
+      <c r="AV12">
         <v>21.51</v>
       </c>
-      <c r="AS12">
+      <c r="AW12">
         <v>23.15</v>
       </c>
+      <c r="BA12">
+        <v>44.66</v>
+      </c>
+      <c r="BB12">
+        <v>-0.253</v>
+      </c>
+      <c r="BC12">
+        <v>44.407</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:56">
       <c r="A13" s="2">
         <v>45693</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G13">
         <v>1000</v>
@@ -2423,67 +2684,67 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="L13">
         <v>118</v>
       </c>
       <c r="M13" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O13">
         <v>9</v>
       </c>
       <c r="P13" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="R13">
         <v>60</v>
       </c>
       <c r="S13" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="T13">
         <v>1145</v>
       </c>
       <c r="U13" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="W13">
         <v>3</v>
       </c>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Z13" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AA13" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AB13" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AC13" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="AD13" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AE13" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="AF13" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AG13" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
